--- a/src/test/resource/testdata/testDataSheet.xlsx
+++ b/src/test/resource/testdata/testDataSheet.xlsx
@@ -79,9 +79,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,16 +395,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14" style="4" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
@@ -405,7 +417,7 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -421,15 +433,124 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/test/resource/testdata/testDataSheet.xlsx
+++ b/src/test/resource/testdata/testDataSheet.xlsx
@@ -42,7 +42,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,16 +399,16 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="10.28515625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="4" width="14.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="14.85546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="12.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
